--- a/Ip címek (2) (1).xlsx
+++ b/Ip címek (2) (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vizsgazo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3198DC1A-EB98-4A78-BDE5-4743E716B110}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702C3767-7086-41DE-9BE6-DFA318279E6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{3C8E1D91-6102-4D35-9A76-F2106A82412B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="108">
   <si>
     <t>Ip címek</t>
   </si>
@@ -220,6 +220,135 @@
   </si>
   <si>
     <t>trunk,10,20,99</t>
+  </si>
+  <si>
+    <t>Ipari switch</t>
+  </si>
+  <si>
+    <t>172.16.0.1</t>
+  </si>
+  <si>
+    <t>internet router</t>
+  </si>
+  <si>
+    <t>g0/2</t>
+  </si>
+  <si>
+    <t>172.0.0.2</t>
+  </si>
+  <si>
+    <t>255.255.255.252</t>
+  </si>
+  <si>
+    <t>wireless kifele</t>
+  </si>
+  <si>
+    <t>wireless belso</t>
+  </si>
+  <si>
+    <t>255.255.255.192</t>
+  </si>
+  <si>
+    <t>dhcpvel oszt 10-tol</t>
+  </si>
+  <si>
+    <t>wifi</t>
+  </si>
+  <si>
+    <t>ssid</t>
+  </si>
+  <si>
+    <t>ipari_wifi</t>
+  </si>
+  <si>
+    <t>wpa2-psk</t>
+  </si>
+  <si>
+    <t>2.4ghz, 5ghz</t>
+  </si>
+  <si>
+    <t>cisco123</t>
+  </si>
+  <si>
+    <t>172.16.0.62</t>
+  </si>
+  <si>
+    <t>52 gep tud igy osszesen csatlakozni</t>
+  </si>
+  <si>
+    <t>tuzfal</t>
+  </si>
+  <si>
+    <t>kifele g1/1</t>
+  </si>
+  <si>
+    <t>befele g1/2</t>
+  </si>
+  <si>
+    <t>172.0.0.1</t>
+  </si>
+  <si>
+    <t>172.0.0.5/30</t>
+  </si>
+  <si>
+    <t>172.0.0.6</t>
+  </si>
+  <si>
+    <t>Iroda1 router</t>
+  </si>
+  <si>
+    <t>g0/0</t>
+  </si>
+  <si>
+    <t>iroda2 router</t>
+  </si>
+  <si>
+    <t>2001:db8:1::1/64</t>
+  </si>
+  <si>
+    <t>2001:db8:1::2/64</t>
+  </si>
+  <si>
+    <t>ipv6</t>
+  </si>
+  <si>
+    <t>Master router</t>
+  </si>
+  <si>
+    <t>virtual cím</t>
+  </si>
+  <si>
+    <t>FE80::10</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>preempt</t>
+  </si>
+  <si>
+    <t>Backup router</t>
+  </si>
+  <si>
+    <t>172.0.0.13</t>
+  </si>
+  <si>
+    <t>s0/3/1</t>
+  </si>
+  <si>
+    <t>s0/3/0</t>
+  </si>
+  <si>
+    <t>172.0.0.14</t>
+  </si>
+  <si>
+    <t>172.0.0.17</t>
+  </si>
+  <si>
+    <t>s0/2/0</t>
+  </si>
+  <si>
+    <t>172.0.0.18</t>
   </si>
 </sst>
 </file>
@@ -571,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E04F37-1458-4FC4-A59C-B574D5BDD237}">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,14 +715,30 @@
     <col min="5" max="5" width="16.28515625" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -609,8 +754,26 @@
       <c r="E2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -626,8 +789,23 @@
       <c r="E3">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -643,8 +821,11 @@
       <c r="E4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -660,8 +841,14 @@
       <c r="E5">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -677,8 +864,17 @@
       <c r="E6">
         <v>99</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -688,8 +884,20 @@
       <c r="E7">
         <v>999</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -702,8 +910,11 @@
       <c r="D10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -716,8 +927,17 @@
       <c r="D11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" t="s">
+        <v>88</v>
+      </c>
+      <c r="K11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -730,8 +950,17 @@
       <c r="D12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>85</v>
+      </c>
+      <c r="J12" t="s">
+        <v>86</v>
+      </c>
+      <c r="K12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -745,7 +974,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -759,15 +988,38 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" t="s">
+        <v>92</v>
+      </c>
+      <c r="J16" t="s">
+        <v>103</v>
+      </c>
+      <c r="K16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -780,48 +1032,100 @@
       <c r="D17" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>96</v>
+      </c>
+      <c r="I18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
       <c r="B19" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>98</v>
+      </c>
+      <c r="I19">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
       <c r="B20" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
       <c r="B21" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>91</v>
+      </c>
+      <c r="J21" t="s">
+        <v>103</v>
+      </c>
+      <c r="K21" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>29</v>
       </c>
       <c r="B22" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>90</v>
+      </c>
+      <c r="H22" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
       <c r="B23" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>96</v>
+      </c>
+      <c r="I24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -834,8 +1138,14 @@
       <c r="D25" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>98</v>
+      </c>
+      <c r="I25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -845,8 +1155,11 @@
       <c r="C26">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -857,7 +1170,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -865,7 +1178,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -876,7 +1189,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>18</v>
       </c>
@@ -890,7 +1203,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>42</v>
       </c>

--- a/Ip címek (2) (1).xlsx
+++ b/Ip címek (2) (1).xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vizsgazo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702C3767-7086-41DE-9BE6-DFA318279E6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E987CB9D-574A-412B-842B-47F69E8A29F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{3C8E1D91-6102-4D35-9A76-F2106A82412B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="2" xr2:uid="{3C8E1D91-6102-4D35-9A76-F2106A82412B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Munka1" sheetId="1" r:id="rId1"/>
+    <sheet name="Gimi" sheetId="1" r:id="rId1"/>
+    <sheet name="Ipari" sheetId="2" r:id="rId2"/>
+    <sheet name="Tanmuhely" sheetId="3" r:id="rId3"/>
+    <sheet name="Szolgaltato" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="134">
   <si>
     <t>Ip címek</t>
   </si>
@@ -294,15 +297,9 @@
     <t>172.0.0.6</t>
   </si>
   <si>
-    <t>Iroda1 router</t>
-  </si>
-  <si>
     <t>g0/0</t>
   </si>
   <si>
-    <t>iroda2 router</t>
-  </si>
-  <si>
     <t>2001:db8:1::1/64</t>
   </si>
   <si>
@@ -318,37 +315,121 @@
     <t>virtual cím</t>
   </si>
   <si>
-    <t>FE80::10</t>
-  </si>
-  <si>
-    <t>priority</t>
-  </si>
-  <si>
-    <t>preempt</t>
-  </si>
-  <si>
     <t>Backup router</t>
   </si>
   <si>
-    <t>172.0.0.13</t>
-  </si>
-  <si>
     <t>s0/3/1</t>
   </si>
   <si>
     <t>s0/3/0</t>
   </si>
   <si>
-    <t>172.0.0.14</t>
-  </si>
-  <si>
-    <t>172.0.0.17</t>
-  </si>
-  <si>
     <t>s0/2/0</t>
   </si>
   <si>
     <t>172.0.0.18</t>
+  </si>
+  <si>
+    <t>Tanmuhely1 router</t>
+  </si>
+  <si>
+    <t>Tanmuhely2 router</t>
+  </si>
+  <si>
+    <t>ipv4</t>
+  </si>
+  <si>
+    <t>192.168.7.1/24</t>
+  </si>
+  <si>
+    <t>192.168.7.2/24</t>
+  </si>
+  <si>
+    <t>autoconfig</t>
+  </si>
+  <si>
+    <t>192.168.7.100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ipv6 </t>
+  </si>
+  <si>
+    <t>2005:DB8:1::2/64</t>
+  </si>
+  <si>
+    <t>172.0.0.13/30</t>
+  </si>
+  <si>
+    <t>2004:DB8:1::2/64</t>
+  </si>
+  <si>
+    <t>172.0.0.14/30</t>
+  </si>
+  <si>
+    <t>172.0.0.17/30</t>
+  </si>
+  <si>
+    <t>2004:DB8:1::1/64</t>
+  </si>
+  <si>
+    <t>172.0.0.21/30</t>
+  </si>
+  <si>
+    <t>2006:DB8:1::1/64</t>
+  </si>
+  <si>
+    <t>Termek router</t>
+  </si>
+  <si>
+    <t>int g0/1.10</t>
+  </si>
+  <si>
+    <t>int g0/1.20</t>
+  </si>
+  <si>
+    <t>int g0/1.30</t>
+  </si>
+  <si>
+    <t>int g0/1.99</t>
+  </si>
+  <si>
+    <t>192.168.10.1/24</t>
+  </si>
+  <si>
+    <t>192.168.20.1/24</t>
+  </si>
+  <si>
+    <t>192.168.30.1/24</t>
+  </si>
+  <si>
+    <t>192.168.99.1/24</t>
+  </si>
+  <si>
+    <t>2008:DB8:1::1/64</t>
+  </si>
+  <si>
+    <t>int g0/0</t>
+  </si>
+  <si>
+    <t>2006:DB8:1::2/64</t>
+  </si>
+  <si>
+    <t>172.0.0.22/30</t>
+  </si>
+  <si>
+    <t>tunnel</t>
+  </si>
+  <si>
+    <t>10.100.100.1/30</t>
+  </si>
+  <si>
+    <t>10.100.100.2/30</t>
+  </si>
+  <si>
+    <t>DHCP Helper addres</t>
+  </si>
+  <si>
+    <t>192.168.7.3</t>
   </si>
 </sst>
 </file>
@@ -700,10 +781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E04F37-1458-4FC4-A59C-B574D5BDD237}">
-  <dimension ref="A1:M60"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -715,30 +796,28 @@
     <col min="5" max="5" width="16.28515625" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.5703125" customWidth="1"/>
     <col min="11" max="11" width="14.85546875" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>67</v>
+        <v>116</v>
+      </c>
+      <c r="H1" t="s">
+        <v>102</v>
       </c>
       <c r="I1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -755,25 +834,13 @@
         <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I2" t="s">
-        <v>72</v>
-      </c>
-      <c r="J2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K2" t="s">
-        <v>73</v>
-      </c>
-      <c r="L2" t="s">
-        <v>74</v>
-      </c>
-      <c r="M2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="H2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -790,22 +857,13 @@
         <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>87</v>
-      </c>
-      <c r="I3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K3" t="s">
-        <v>73</v>
-      </c>
-      <c r="L3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="H3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -822,10 +880,13 @@
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="H4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -842,13 +903,16 @@
         <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>104</v>
+        <v>120</v>
+      </c>
+      <c r="H5" t="s">
+        <v>124</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -865,16 +929,16 @@
         <v>99</v>
       </c>
       <c r="G6" t="s">
-        <v>106</v>
+        <v>126</v>
+      </c>
+      <c r="H6" t="s">
+        <v>128</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
-      </c>
-      <c r="J6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -885,19 +949,13 @@
         <v>999</v>
       </c>
       <c r="G7" t="s">
-        <v>105</v>
-      </c>
-      <c r="I7" t="s">
-        <v>78</v>
-      </c>
-      <c r="J7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="H7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -910,11 +968,8 @@
       <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="I10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -927,17 +982,8 @@
       <c r="D11" t="s">
         <v>5</v>
       </c>
-      <c r="I11" t="s">
-        <v>84</v>
-      </c>
-      <c r="J11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -950,17 +996,8 @@
       <c r="D12" t="s">
         <v>6</v>
       </c>
-      <c r="I12" t="s">
-        <v>85</v>
-      </c>
-      <c r="J12" t="s">
-        <v>86</v>
-      </c>
-      <c r="K12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -974,7 +1011,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -988,38 +1025,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
       </c>
-      <c r="G15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G16" t="s">
-        <v>90</v>
-      </c>
-      <c r="H16" t="s">
-        <v>94</v>
-      </c>
-      <c r="I16" t="s">
-        <v>92</v>
-      </c>
-      <c r="J16" t="s">
-        <v>103</v>
-      </c>
-      <c r="K16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1032,100 +1046,48 @@
       <c r="D17" t="s">
         <v>7</v>
       </c>
-      <c r="G17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G18" t="s">
-        <v>96</v>
-      </c>
-      <c r="I18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
       <c r="B19" t="s">
         <v>61</v>
       </c>
-      <c r="G19" t="s">
-        <v>98</v>
-      </c>
-      <c r="I19">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
       <c r="B20" t="s">
         <v>62</v>
       </c>
-      <c r="G20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
       <c r="B21" t="s">
         <v>63</v>
       </c>
-      <c r="G21" t="s">
-        <v>91</v>
-      </c>
-      <c r="J21" t="s">
-        <v>103</v>
-      </c>
-      <c r="K21" t="s">
-        <v>22</v>
-      </c>
-      <c r="L21" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>29</v>
       </c>
       <c r="B22" t="s">
         <v>64</v>
       </c>
-      <c r="G22" t="s">
-        <v>90</v>
-      </c>
-      <c r="H22" t="s">
-        <v>94</v>
-      </c>
-      <c r="I22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
       <c r="B23" t="s">
         <v>31</v>
       </c>
-      <c r="G23" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G24" t="s">
-        <v>96</v>
-      </c>
-      <c r="I24" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1138,14 +1100,8 @@
       <c r="D25" t="s">
         <v>22</v>
       </c>
-      <c r="G25" t="s">
-        <v>98</v>
-      </c>
-      <c r="I25">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1155,11 +1111,8 @@
       <c r="C26">
         <v>10</v>
       </c>
-      <c r="G26" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -1170,7 +1123,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -1178,7 +1131,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -1189,7 +1142,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>18</v>
       </c>
@@ -1203,7 +1156,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -1444,6 +1397,351 @@
       </c>
       <c r="C60" t="s">
         <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5FCA339-FD37-43ED-8B14-02596A73E1FE}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D550F1C3-9DA0-4719-A8D4-0C00CEFA7BD2}">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" t="s">
+        <v>97</v>
+      </c>
+      <c r="H10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7988F4EE-B8C6-4AE0-91E5-028552853D5A}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
